--- a/tour.xlsx
+++ b/tour.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Desktop\Labv Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Desktop\Labv Exam\Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA9BCD8-DD14-4030-B115-41610ED6A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A3508A-F323-43CD-B3FF-A8F15681F56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="1380" windowWidth="21600" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,29 +371,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,118 +401,180 @@
         <v>18.5</v>
       </c>
       <c r="D2">
+        <f>C2-C4</f>
+        <v>2.7750000000000004</v>
+      </c>
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>C2*0.9</f>
         <v>16.650000000000002</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>C2*0.85</f>
         <v>15.725</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3">
-        <f>F2</f>
+        <f>G2</f>
         <v>16.650000000000002</v>
       </c>
       <c r="D3">
+        <f>C3-C4</f>
+        <v>0.92500000000000249</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4">
-        <f>G2</f>
+        <f>H2</f>
         <v>15.725</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5">
-        <f>G2</f>
+        <f>H2</f>
         <v>15.725</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6">
-        <f>G2</f>
+        <f>H2</f>
         <v>15.725</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7">
-        <f>G2</f>
+        <f>H2</f>
         <v>15.725</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="J7">
-        <f>H7*I7</f>
+      <c r="K7">
+        <f>I7*J7</f>
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>SUM(C2:C8)</f>
         <v>98.05</v>
       </c>
-      <c r="D9">
-        <f>SUM(D2:D8)</f>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>C2</f>
         <v>18.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>C3</f>
         <v>16.650000000000002</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>C4</f>
         <v>15.725</v>
       </c>
-      <c r="L9">
-        <f>(J9-2)*K9</f>
+      <c r="M9">
+        <f>(K9-2)*L9</f>
         <v>31.45</v>
       </c>
-      <c r="M9">
-        <f>H9+I9+L9</f>
+      <c r="N9">
+        <f>I9+J9+M9</f>
         <v>66.600000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>H2*C12+D2</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>C13*H2+D2+D3</f>
+        <v>35.150000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>C14*$H$2+$D$2+$D$3</f>
+        <v>50.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D17" si="0">C15*$H$2+$D$2+$D$3</f>
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>82.325000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>98.05</v>
       </c>
     </row>
   </sheetData>
